--- a/output/teste/df_variables_last_time_step5.xlsx
+++ b/output/teste/df_variables_last_time_step5.xlsx
@@ -31,112 +31,112 @@
     <t>param_demand1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_net1_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net1_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_net1_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net1_demand1_starting_index</t>
+    <t>param_pv1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
     <t>param_pv1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_pv1_emissions_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_pv1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_P_pv1_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_pv1_starting_index</t>
+    <t>param_P_from_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_cumulated_aging_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_max_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
   </si>
   <si>
     <t>param_bat1_SOC_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_cumulated_aging_starting_index</t>
-  </si>
-  <si>
     <t>param_bat1_op_cost_starting_index</t>
   </si>
   <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
     <t>param_P_to_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_max_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
+    <t>param_total_operation_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_buy_starting_index</t>
   </si>
   <si>
     <t>param_total_sell_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_buy_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_operation_cost_starting_index</t>
   </si>
   <si>
     <t>param_total_emissions_starting_index</t>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>73.67520693821211</v>
+        <v>47.35749324503108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>334.1383789933903</v>
+        <v>98.66144426048142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>348.8904247393178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>247.7233200748814</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>185.7936756188316</v>
+        <v>99.08932802995255</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>502.1450692400854</v>
+        <v>98.66144426048142</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>163.125434372641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>114.7040056038411</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>407.8135859316024</v>
+        <v>247.7233200748814</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>502.1450692400854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.6250005000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -676,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.31250025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.6250005000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.9999144659130151</v>
+        <v>66.48743578943949</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.1846873216373319</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.0001433360873037174</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>8.553408698490925E-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>73.67520693821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-0</v>
+        <v>0.9998566639126962</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -764,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0</v>
+        <v>66.48743578943949</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.9999144659130151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.2046533526061447</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>348.9191099914726</v>
+        <v>146.4468212749836</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>349.407578341924</v>
+        <v>114.8886929254785</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_variables_last_time_step5.xlsx
+++ b/output/teste/df_variables_last_time_step5.xlsx
@@ -25,712 +25,712 @@
     <t>param_TimeStep_starting_index</t>
   </si>
   <si>
+    <t>param_demand1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_demand1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_demand1_op_cost_starting_index</t>
+    <t>param_demand2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_demand2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_demand2_inv_cost_starting_index</t>
+    <t>param_Q_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat1_starting_index</t>
   </si>
   <si>
     <t>param_P_net1_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_to_net1_starting_index</t>
   </si>
   <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_net1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_net1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_electric_starting_index</t>
-  </si>
-  <si>
     <t>param_net1_buy_thermal_starting_index</t>
   </si>
   <si>
-    <t>param_P_net1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_demand1_starting_index</t>
+    <t>param_net2_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_net2_buy_thermal_starting_index</t>
   </si>
   <si>
-    <t>param_net2_inv_cost_starting_index</t>
+    <t>param_net2_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_net2_charging_station2_starting_index</t>
   </si>
   <si>
+    <t>param_Q_to_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_net2_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_sell_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_net2_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net2_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_buy_electric_starting_index</t>
+    <t>param_P_pv1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat2_starting_index</t>
   </si>
   <si>
     <t>param_P_pv1_net2_starting_index</t>
   </si>
   <si>
+    <t>param_P_pv1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv1_heat_pump2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat2_starting_index</t>
-  </si>
-  <si>
     <t>param_P_pv1_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_pv1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat1_starting_index</t>
+    <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
     <t>param_pv1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_emissions_starting_index</t>
+    <t>param_P_pv2_charging_station1_starting_index</t>
   </si>
   <si>
     <t>param_P_pv2_net1_starting_index</t>
   </si>
   <si>
+    <t>param_P_from_pv2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv2_net2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_charging_station1_starting_index</t>
-  </si>
-  <si>
     <t>param_pv2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_heat_pump1_starting_index</t>
-  </si>
-  <si>
     <t>param_pv2_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_pv2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pv2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_demand1_starting_index</t>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_cumulated_aging_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat1_starting_index</t>
   </si>
   <si>
     <t>param_bat1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_to_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_heat_pump1_starting_index</t>
+    <t>param_P_from_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
   </si>
   <si>
     <t>param_P_bat1_charging_station2_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_cumulated_aging_starting_index</t>
+    <t>param_P_bat1_net2_starting_index</t>
   </si>
   <si>
     <t>param_bat1_SOC_max_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net2_starting_index</t>
+    <t>param_P_bat2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_bat2_cumulated_aging_starting_index</t>
   </si>
   <si>
+    <t>param_P_bat2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_K_dis_starting_index</t>
+  </si>
+  <si>
     <t>param_bat2_K_ch_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_net1_starting_index</t>
-  </si>
-  <si>
     <t>param_bat2_SOC_max_starting_index</t>
   </si>
   <si>
-    <t>param_bat2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_bat2_starting_index</t>
-  </si>
-  <si>
     <t>param_bat2_integer_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat2_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_demand2_starting_index</t>
+    <t>param_Q_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_fuel_cons_starting_index</t>
   </si>
   <si>
     <t>param_CHP1_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_CHP1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_CHP1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_net1_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_from_CHP1_starting_index</t>
   </si>
   <si>
-    <t>param_P_CHP1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_demand2_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_CHP1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_CHP1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP1_fuel_cons_starting_index</t>
+    <t>param_P_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_fuel_cons_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_CHP2_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_CHP2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_fuel_cons_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_net2_starting_index</t>
+    <t>param_P_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_P_CHP2_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_CHP2_starting_index</t>
-  </si>
-  <si>
     <t>param_P_CHP2_charging_station2_starting_index</t>
   </si>
   <si>
-    <t>param_CHP2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_CHP2_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_demand2_starting_index</t>
+    <t>param_Q_solar_th1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_solar_th1_starting_index</t>
   </si>
   <si>
     <t>param_Q_solar_th1_demand1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_solar_th1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_solar_th1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_solar_th1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th1_op_cost_starting_index</t>
-  </si>
-  <si>
     <t>param_solar_th1_emissions_starting_index</t>
   </si>
   <si>
     <t>param_Q_solar_th1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_solar_th1_starting_index</t>
+    <t>param_Q_solar_th2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_Q_from_solar_th2_starting_index</t>
   </si>
   <si>
+    <t>param_solar_th2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_solar_th2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_solar_th2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_demand2_starting_index</t>
+    <t>param_P_pvt1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_pvt1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_heat_pump2_starting_index</t>
+    <t>param_P_pvt1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt1_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_pvt1_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pvt1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_pvt1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pvt1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_demand2_starting_index</t>
+    <t>param_P_pvt2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt2_net1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pvt2_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_P_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_pvt2_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt2_net2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pvt2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pvt2_starting_index</t>
+    <t>param_P_pvt2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_Q_pvt2_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_pvt2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_pvt2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_heat_pump1_starting_index</t>
-  </si>
-  <si>
     <t>param_pvt2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_pvt2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt2_demand1_starting_index</t>
-  </si>
-  <si>
     <t>param_charging_station1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_charging_station1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_charging_station1_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_charging_station1_op_cost_starting_index</t>
+    <t>param_charging_station2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_charging_station2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_charging_station2_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_charging_station2_op_cost_starting_index</t>
   </si>
   <si>
+    <t>param_Q_heat_pump1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_heat_pump1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_Q_heat_pump1_net2_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_heat_pump1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump1_net2_starting_index</t>
+    <t>param_Q_heat_pump1_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_to_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_heat_pump1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump1_emissions_starting_index</t>
+    <t>param_P_to_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_P_from_heat_pump2_starting_index</t>
   </si>
   <si>
-    <t>param_heat_pump2_emissions_starting_index</t>
+    <t>param_Q_heat_pump2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_op_cost_starting_index</t>
   </si>
   <si>
     <t>param_heat_pump2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_demand1_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_to_heat_pump2_starting_index</t>
   </si>
   <si>
+    <t>param_total_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_sell_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_buy_starting_index</t>
+  </si>
+  <si>
     <t>param_total_operation_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_sell_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_buy_starting_index</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>200.9926640149763</v>
+        <v>248.8595520199684</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>122.1488800499209</v>
+        <v>200.9926640149763</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1347,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1004.963320074881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>662.1488800499209</v>
+        <v>1004.963320074881</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1379,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>622.1488800499209</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>757.24</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>500</v>
+        <v>757.24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>611.9945696459273</v>
+        <v>589.5945696459272</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>247.7233200748814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>122.1488800499209</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>264.8595520199684</v>
+        <v>247.7233200748814</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.8999999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3.166666666666667E-06</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.9999968333333333</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>40</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>4.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>2.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>4.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>10.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2875,7 +2875,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>2.76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>2.76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2907,7 +2907,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>42.12328767123287</v>
+        <v>628.0745696459272</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>628.0745696459273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2987,7 +2987,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>469.0522160349446</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>465.8522160349447</v>
+        <v>42.12328767123287</v>
       </c>
     </row>
   </sheetData>
